--- a/Exos/00-dictionary/02-gp-dictionaire-v1.xlsx
+++ b/Exos/00-dictionary/02-gp-dictionaire-v1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPO-GITHUB\CDA-07-DB\Exos\00-dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8383F1E6-8032-4C20-9C2D-C317F1D87390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9268B18-B435-4CE0-BF42-51D8D024E534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="17640" xr2:uid="{E3CDA62B-C07C-470F-A5A7-9CD910FBD69E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E3CDA62B-C07C-470F-A5A7-9CD910FBD69E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dictionnaire de données vanilla" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,115 +33,388 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
-  <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Meaning</t>
-  </si>
-  <si>
-    <t>Type (length)</t>
-  </si>
-  <si>
-    <t>Constraint</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="125">
   <si>
     <t>ath_id</t>
   </si>
   <si>
-    <t>Athlete identifier</t>
-  </si>
-  <si>
-    <t>NUM(11)</t>
-  </si>
-  <si>
-    <t>id, autoincrement</t>
-  </si>
-  <si>
     <t>ath_lastname</t>
   </si>
   <si>
-    <t>Athlete lastname</t>
-  </si>
-  <si>
-    <t>AN(50)</t>
-  </si>
-  <si>
-    <t>mandatory</t>
-  </si>
-  <si>
     <t>ath_firstname</t>
   </si>
   <si>
-    <t>Athlete firstname</t>
-  </si>
-  <si>
     <t>ath_sex</t>
   </si>
   <si>
-    <t>Athlete sex (M or F)</t>
-  </si>
-  <si>
-    <t>AN(1)</t>
-  </si>
-  <si>
-    <t>ath_total_score</t>
-  </si>
-  <si>
-    <t>Athlete total score</t>
-  </si>
-  <si>
-    <t>AN(4)</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>athletes</t>
   </si>
   <si>
-    <t>prizes</t>
-  </si>
-  <si>
-    <t>prz_id</t>
-  </si>
-  <si>
-    <t>prz_name</t>
-  </si>
-  <si>
-    <t>Prize id</t>
-  </si>
-  <si>
-    <t>Prize name</t>
-  </si>
-  <si>
-    <t>prz_sponsor</t>
-  </si>
-  <si>
-    <t>Sponzor name</t>
-  </si>
-  <si>
-    <t>ath_reward</t>
-  </si>
-  <si>
-    <t>Amount of the reward won</t>
-  </si>
-  <si>
-    <t>NUM(5)</t>
+    <t>Entité</t>
+  </si>
+  <si>
+    <t>Mnémonique</t>
+  </si>
+  <si>
+    <t>Signification</t>
+  </si>
+  <si>
+    <t>Type (longueur)</t>
+  </si>
+  <si>
+    <t>Contraintes</t>
+  </si>
+  <si>
+    <t>federations</t>
+  </si>
+  <si>
+    <t>meetings</t>
+  </si>
+  <si>
+    <t>trials</t>
+  </si>
+  <si>
+    <t>records</t>
+  </si>
+  <si>
+    <t>competitions</t>
+  </si>
+  <si>
+    <t>comp_name</t>
+  </si>
+  <si>
+    <t>comp_date</t>
+  </si>
+  <si>
+    <t>Date de la competition</t>
+  </si>
+  <si>
+    <t>Nom de le competition</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ath_birth</t>
+  </si>
+  <si>
+    <t>Identifiant de l'athlete</t>
+  </si>
+  <si>
+    <t>Nom de l'athlete</t>
+  </si>
+  <si>
+    <t>Prenom de l'athlete</t>
+  </si>
+  <si>
+    <t>Date de naissance de l'athlete</t>
+  </si>
+  <si>
+    <t>Genre de l'athlete</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Auto-incremente</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Obligatoire</t>
+  </si>
+  <si>
+    <t>=M or =F</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>comp_male_winner</t>
+  </si>
+  <si>
+    <t>comp_female_winner</t>
+  </si>
+  <si>
+    <t>discipline</t>
+  </si>
+  <si>
+    <t>trial_name</t>
+  </si>
+  <si>
+    <t>trial_date</t>
+  </si>
+  <si>
+    <t>trial_points</t>
+  </si>
+  <si>
+    <t>Nom de l'epreuve</t>
+  </si>
+  <si>
+    <t>Date de l'epreuve</t>
+  </si>
+  <si>
+    <t>meet_name</t>
+  </si>
+  <si>
+    <t>meet_date</t>
+  </si>
+  <si>
+    <t>meet_city</t>
+  </si>
+  <si>
+    <t>Nombre de points maximum accumules sur la meilleure discipline de l'athlete</t>
+  </si>
+  <si>
+    <t>Gagnant de la competition</t>
+  </si>
+  <si>
+    <t>Gagnante de la competition</t>
+  </si>
+  <si>
+    <t>disc_name</t>
+  </si>
+  <si>
+    <t>Nom de la discipine</t>
+  </si>
+  <si>
+    <t>ath_max_total_points</t>
+  </si>
+  <si>
+    <t>fede_name</t>
+  </si>
+  <si>
+    <t>fede_creation</t>
+  </si>
+  <si>
+    <t>&lt; comp_date</t>
+  </si>
+  <si>
+    <t>&gt;= comp_date</t>
+  </si>
+  <si>
+    <t>Optionnel</t>
+  </si>
+  <si>
+    <t>rec_name</t>
+  </si>
+  <si>
+    <t>rec_date</t>
+  </si>
+  <si>
+    <t>rec_id</t>
+  </si>
+  <si>
+    <t>Identifiant du record</t>
+  </si>
+  <si>
+    <t>Date du record</t>
+  </si>
+  <si>
+    <t>Genre du detenteur du record</t>
+  </si>
+  <si>
+    <t>rec_discipline</t>
+  </si>
+  <si>
+    <t>rec_competition</t>
+  </si>
+  <si>
+    <t>rec_meeting</t>
+  </si>
+  <si>
+    <t>rec_athlete</t>
+  </si>
+  <si>
+    <t>rec_trial</t>
+  </si>
+  <si>
+    <t>Nom de l'athlete detenteur du record</t>
+  </si>
+  <si>
+    <t>Competition en cours lors de l'etablissement du record</t>
+  </si>
+  <si>
+    <t>Meeting en cours lors de l'etablissement du record</t>
+  </si>
+  <si>
+    <t>Epreuve en cours lors de l'etablissement du record</t>
+  </si>
+  <si>
+    <t>Discipline en cours lors de l'etablissement du record</t>
+  </si>
+  <si>
+    <t>disc_result_type</t>
+  </si>
+  <si>
+    <t>Type du resultat (distance, hauteur, temps de course, etc…)</t>
+  </si>
+  <si>
+    <t>Nom du meeting</t>
+  </si>
+  <si>
+    <t>Date du meeting</t>
+  </si>
+  <si>
+    <t>Ville du meeting</t>
+  </si>
+  <si>
+    <t>trial_serial</t>
+  </si>
+  <si>
+    <t>Epreuve de type "Serie"</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>Points attribues au vainqueur</t>
+  </si>
+  <si>
+    <t>Initialise a 0</t>
+  </si>
+  <si>
+    <t>Nom de la federation</t>
+  </si>
+  <si>
+    <t>fede_discipline</t>
+  </si>
+  <si>
+    <t>Date de creation de la federation</t>
+  </si>
+  <si>
+    <t>Nom de la discipline pratiquee dans cette federation</t>
+  </si>
+  <si>
+    <t>stadiums</t>
+  </si>
+  <si>
+    <t>stad_name</t>
+  </si>
+  <si>
+    <t>stad_city</t>
+  </si>
+  <si>
+    <t>Nom du stade</t>
+  </si>
+  <si>
+    <t>Ville du stade</t>
+  </si>
+  <si>
+    <t>stad_capacity</t>
+  </si>
+  <si>
+    <t>Capacite du stade</t>
+  </si>
+  <si>
+    <t>meet_number_athletes</t>
+  </si>
+  <si>
+    <t>Nombre de participants au meeting</t>
+  </si>
+  <si>
+    <t>comp_subscibers</t>
+  </si>
+  <si>
+    <t>Nombre d'athletes inscrits</t>
+  </si>
+  <si>
+    <t>&lt;= comp_subscribers</t>
+  </si>
+  <si>
+    <t>accomodations</t>
+  </si>
+  <si>
+    <t>acc_id</t>
+  </si>
+  <si>
+    <t>Identifiant du logement</t>
+  </si>
+  <si>
+    <t>acc_stars</t>
+  </si>
+  <si>
+    <t>Nombre d'etoiles</t>
+  </si>
+  <si>
+    <t>acc_beds_available</t>
+  </si>
+  <si>
+    <t>acc_name</t>
+  </si>
+  <si>
+    <t>Nom de l'herbegement</t>
+  </si>
+  <si>
+    <t>Nombre de couchage disponibles durant le meeting</t>
+  </si>
+  <si>
+    <t>acc_nearest_stadium</t>
+  </si>
+  <si>
+    <t>Nom du stade le plus proche</t>
+  </si>
+  <si>
+    <t>acc_travel_time</t>
+  </si>
+  <si>
+    <t>Temps de trajet pour se rendre au stade le plus proche</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>acc_city</t>
+  </si>
+  <si>
+    <t>Ville de l'hebergement</t>
+  </si>
+  <si>
+    <t>rec_gender</t>
+  </si>
+  <si>
+    <t>Nom du record (World record, European record, Competition record, etc..)</t>
+  </si>
+  <si>
+    <t>conveyances</t>
+  </si>
+  <si>
+    <t>conv_id</t>
+  </si>
+  <si>
+    <t>conv_name</t>
+  </si>
+  <si>
+    <t>conv_city</t>
+  </si>
+  <si>
+    <t>Identifiant du moyen de transport</t>
+  </si>
+  <si>
+    <t>Nom du moyen de transport</t>
+  </si>
+  <si>
+    <t>Ville du moyen de transport</t>
+  </si>
+  <si>
+    <t>trial_max_competitors</t>
+  </si>
+  <si>
+    <t>Nombre max de participants par epreuve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,13 +428,25 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,12 +455,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE4E9EF"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -185,38 +530,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
       <bottom/>
@@ -224,14 +569,40 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -239,24 +610,283 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -264,6 +894,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FFCCCCFF"/>
+      <color rgb="FF09E2E7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -572,238 +1209,1031 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0224A567-91E6-4B27-87A3-2EDA4222578A}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A2:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G49" sqref="B2:H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="27.140625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="18.42578125" style="1"/>
+    <col min="1" max="1" width="27.140625" style="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="27.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="10">
+        <v>50</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="78"/>
+    </row>
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="10">
+        <v>8</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="78"/>
+    </row>
+    <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="10">
+        <v>100</v>
+      </c>
+      <c r="G5" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="78"/>
+    </row>
+    <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="9">
+        <v>100</v>
+      </c>
+      <c r="G6" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="80"/>
+    </row>
+    <row r="7" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="80"/>
+    </row>
+    <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="16">
+        <v>50</v>
+      </c>
+      <c r="G8" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="82"/>
+    </row>
+    <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="16">
+        <v>8</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="16">
+        <v>50</v>
+      </c>
+      <c r="G10" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="82"/>
+    </row>
+    <row r="11" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+      <c r="C11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="16">
+        <v>5</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="23">
+        <v>50</v>
+      </c>
+      <c r="G12" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="84"/>
+    </row>
+    <row r="13" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="24"/>
+      <c r="C13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="23">
+        <v>8</v>
+      </c>
+      <c r="G13" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="84"/>
+    </row>
+    <row r="14" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="23">
+        <v>8</v>
+      </c>
+      <c r="G14" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="84"/>
+    </row>
+    <row r="15" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="24"/>
+      <c r="C15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="23">
+        <v>8</v>
+      </c>
+      <c r="G15" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="84"/>
+    </row>
+    <row r="16" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="25"/>
+      <c r="C16" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="23">
+        <v>5</v>
+      </c>
+      <c r="G16" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="84"/>
+    </row>
+    <row r="17" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D17" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="29">
+        <v>11</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D18" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="31">
+        <v>50</v>
+      </c>
+      <c r="G18" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="86"/>
+    </row>
+    <row r="19" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="26"/>
+      <c r="C19" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D19" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="31">
+        <v>50</v>
+      </c>
+      <c r="G19" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="86"/>
+    </row>
+    <row r="20" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="26"/>
+      <c r="C20" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="31">
+        <v>8</v>
+      </c>
+      <c r="G20" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="86"/>
+    </row>
+    <row r="21" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="26"/>
+      <c r="C21" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="D21" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="31">
+        <v>1</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="26"/>
+      <c r="C22" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="31">
+        <v>8</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="34">
+        <v>50</v>
+      </c>
+      <c r="G23" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="88"/>
+    </row>
+    <row r="24" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="35"/>
+      <c r="C24" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="38">
+        <v>8</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="40"/>
+      <c r="C25" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="38">
+        <v>50</v>
+      </c>
+      <c r="G25" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="90"/>
+    </row>
+    <row r="26" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="44">
+        <v>50</v>
+      </c>
+      <c r="G26" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="92"/>
+    </row>
+    <row r="27" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="45"/>
+      <c r="C27" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="44">
+        <v>50</v>
+      </c>
+      <c r="G27" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="92"/>
+    </row>
+    <row r="28" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="49">
+        <v>11</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="51"/>
+      <c r="C29" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="49">
+        <v>50</v>
+      </c>
+      <c r="G29" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="74"/>
+    </row>
+    <row r="30" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="51"/>
+      <c r="C30" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="49">
+        <v>8</v>
+      </c>
+      <c r="G30" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="74"/>
+    </row>
+    <row r="31" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="51"/>
+      <c r="C31" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="49">
+        <v>1</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="51"/>
+      <c r="C32" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="49">
+        <v>100</v>
+      </c>
+      <c r="G32" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="74"/>
+    </row>
+    <row r="33" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="51"/>
+      <c r="C33" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="49">
+        <v>50</v>
+      </c>
+      <c r="G33" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="74"/>
+    </row>
+    <row r="34" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="51"/>
+      <c r="C34" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="49">
+        <v>50</v>
+      </c>
+      <c r="G34" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="74"/>
+    </row>
+    <row r="35" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="51"/>
+      <c r="C35" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="49">
+        <v>50</v>
+      </c>
+      <c r="G35" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="74"/>
+    </row>
+    <row r="36" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="52"/>
+      <c r="C36" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="49">
+        <v>50</v>
+      </c>
+      <c r="G36" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="74"/>
+    </row>
+    <row r="37" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="56">
+        <v>50</v>
+      </c>
+      <c r="G37" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="76"/>
+    </row>
+    <row r="38" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="57"/>
+      <c r="C38" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="56">
+        <v>50</v>
+      </c>
+      <c r="G38" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="76"/>
+    </row>
+    <row r="39" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="58"/>
+      <c r="C39" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="56">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="G39" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="76"/>
+    </row>
+    <row r="40" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="62">
+        <v>11</v>
+      </c>
+      <c r="G40" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="59"/>
+      <c r="C41" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="62">
+        <v>50</v>
+      </c>
+      <c r="G41" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="70"/>
+    </row>
+    <row r="42" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="59"/>
+      <c r="C42" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="62">
+        <v>50</v>
+      </c>
+      <c r="G42" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="70"/>
+    </row>
+    <row r="43" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="59"/>
+      <c r="C43" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="62">
+        <v>5</v>
+      </c>
+      <c r="G43" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="70"/>
+    </row>
+    <row r="44" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="59"/>
+      <c r="C44" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="62">
+        <v>3</v>
+      </c>
+      <c r="G44" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="70"/>
+    </row>
+    <row r="45" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="59"/>
+      <c r="C45" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="62">
+        <v>50</v>
+      </c>
+      <c r="G45" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="70"/>
+    </row>
+    <row r="46" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="59"/>
+      <c r="C46" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="62">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="G46" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="70"/>
+    </row>
+    <row r="47" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="67">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="G47" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="64"/>
+      <c r="C48" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="F48" s="67">
+        <v>50</v>
+      </c>
+      <c r="G48" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="72"/>
+    </row>
+    <row r="49" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="64"/>
+      <c r="C49" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="F49" s="67">
+        <v>50</v>
+      </c>
+      <c r="G49" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A10"/>
+  <mergeCells count="49">
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Exos/00-dictionary/02-gp-dictionaire-v1.xlsx
+++ b/Exos/00-dictionary/02-gp-dictionaire-v1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPO-GITHUB\CDA-07-DB\Exos\00-dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9268B18-B435-4CE0-BF42-51D8D024E534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A60CBB-EC6D-48AC-89CF-A69E30AFEADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E3CDA62B-C07C-470F-A5A7-9CD910FBD69E}"/>
+    <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{E3CDA62B-C07C-470F-A5A7-9CD910FBD69E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionnaire de données vanilla" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="170">
   <si>
     <t>ath_id</t>
   </si>
@@ -408,6 +409,141 @@
   </si>
   <si>
     <t>Nombre max de participants par epreuve</t>
+  </si>
+  <si>
+    <t>ath_gender</t>
+  </si>
+  <si>
+    <t>ath_birthday</t>
+  </si>
+  <si>
+    <t>fed_name</t>
+  </si>
+  <si>
+    <t>fed_creation</t>
+  </si>
+  <si>
+    <t>fed_country</t>
+  </si>
+  <si>
+    <t>Pays de la federation</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Identifiant</t>
+  </si>
+  <si>
+    <t>Auto-incrementé</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>sp_name</t>
+  </si>
+  <si>
+    <t>Nom de la discipline</t>
+  </si>
+  <si>
+    <t>sp_result_unity</t>
+  </si>
+  <si>
+    <t>Unite de mesure d'un resultat dans la discipline (hauteur, temps, distance,etc…)</t>
+  </si>
+  <si>
+    <t>"M", "F"</t>
+  </si>
+  <si>
+    <t>rec_value</t>
+  </si>
+  <si>
+    <t>Valeur du record</t>
+  </si>
+  <si>
+    <t>Niveau du record</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>rec_type</t>
+  </si>
+  <si>
+    <t>gp_name</t>
+  </si>
+  <si>
+    <t>gp_year</t>
+  </si>
+  <si>
+    <t>Nom du grand prix</t>
+  </si>
+  <si>
+    <t>Annee du grand prix</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>gps</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>loc_zipcode</t>
+  </si>
+  <si>
+    <t>loc_name</t>
+  </si>
+  <si>
+    <t>Code postal</t>
+  </si>
+  <si>
+    <t>Nom de ville</t>
+  </si>
+  <si>
+    <t>Caracteres autorisés `-` (dash)</t>
+  </si>
+  <si>
+    <t>Annee sur 4 chiffres</t>
+  </si>
+  <si>
+    <t>meet_end_start</t>
+  </si>
+  <si>
+    <t>meet_start_date</t>
+  </si>
+  <si>
+    <t>Nom de la rencontre</t>
+  </si>
+  <si>
+    <t>Date de debut de la rencontre</t>
+  </si>
+  <si>
+    <t>Date de fin de la rencontre</t>
+  </si>
+  <si>
+    <t>DATE &amp; HOUR</t>
+  </si>
+  <si>
+    <t>trial_series</t>
+  </si>
+  <si>
+    <t>L'epreuve est-elle en serie ?</t>
+  </si>
+  <si>
+    <t>trial_nbmax</t>
+  </si>
+  <si>
+    <t>&gt; 0</t>
+  </si>
+  <si>
+    <t>trial_score</t>
+  </si>
+  <si>
+    <t>Points attribues sur cette epreuve</t>
   </si>
 </sst>
 </file>
@@ -627,247 +763,247 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1211,7 +1347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0224A567-91E6-4B27-87A3-2EDA4222578A}">
   <dimension ref="A2:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G49" sqref="B2:H49"/>
     </sheetView>
   </sheetViews>
@@ -1238,427 +1374,427 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="85"/>
+      <c r="G2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="10">
-        <v>50</v>
-      </c>
-      <c r="G3" s="77" t="s">
+      <c r="F3" s="8">
+        <v>50</v>
+      </c>
+      <c r="G3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="78"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>8</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="78"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="74"/>
+      <c r="C5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>100</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="78"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>100</v>
       </c>
-      <c r="G6" s="79" t="s">
+      <c r="G6" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="80"/>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="75"/>
+      <c r="C7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>5</v>
       </c>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="80"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="16">
-        <v>50</v>
-      </c>
-      <c r="G8" s="81" t="s">
+      <c r="F8" s="11">
+        <v>50</v>
+      </c>
+      <c r="G8" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="82"/>
+      <c r="H8" s="52"/>
     </row>
     <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="71"/>
+      <c r="C9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="11">
         <v>8</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="16">
-        <v>50</v>
-      </c>
-      <c r="G10" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="82"/>
+      <c r="F10" s="11">
+        <v>50</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="52"/>
     </row>
     <row r="11" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="11">
         <v>5</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="12" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="23">
-        <v>50</v>
-      </c>
-      <c r="G12" s="83" t="s">
+      <c r="F12" s="15">
+        <v>50</v>
+      </c>
+      <c r="G12" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="84"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="59"/>
+      <c r="C13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="15">
         <v>8</v>
       </c>
-      <c r="G13" s="83" t="s">
+      <c r="G13" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="84"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="15">
         <v>8</v>
       </c>
-      <c r="G14" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="84"/>
+      <c r="G14" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="15">
         <v>8</v>
       </c>
-      <c r="G15" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="84"/>
+      <c r="G15" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="15">
         <v>5</v>
       </c>
-      <c r="G16" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="84"/>
+      <c r="G16" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="54"/>
     </row>
     <row r="17" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="18">
         <v>11</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="86"/>
+      <c r="C18" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="31">
-        <v>50</v>
-      </c>
-      <c r="G18" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="86"/>
+      <c r="F18" s="20">
+        <v>50</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="56"/>
     </row>
     <row r="19" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="27" t="s">
+      <c r="B19" s="86"/>
+      <c r="C19" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="31">
-        <v>50</v>
-      </c>
-      <c r="G19" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="86"/>
+      <c r="F19" s="20">
+        <v>50</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="56"/>
     </row>
     <row r="20" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="C20" s="27" t="s">
+      <c r="B20" s="86"/>
+      <c r="C20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="20">
         <v>8</v>
       </c>
-      <c r="G20" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="86"/>
+      <c r="G20" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="56"/>
     </row>
     <row r="21" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
-      <c r="C21" s="27" t="s">
+      <c r="B21" s="86"/>
+      <c r="C21" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="20">
         <v>1</v>
       </c>
-      <c r="G21" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="30" t="s">
+      <c r="G21" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="27" t="s">
+      <c r="B22" s="86"/>
+      <c r="C22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="20">
         <v>8</v>
       </c>
-      <c r="G22" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="30" t="s">
+      <c r="G22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="22">
         <v>50</v>
       </c>
       <c r="G23" s="87" t="s">
@@ -1667,38 +1803,38 @@
       <c r="H23" s="88"/>
     </row>
     <row r="24" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="35"/>
-      <c r="C24" s="36" t="s">
+      <c r="B24" s="83"/>
+      <c r="C24" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="25">
         <v>8</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="H24" s="26" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="40"/>
-      <c r="C25" s="36" t="s">
+      <c r="B25" s="84"/>
+      <c r="C25" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="25">
         <v>50</v>
       </c>
       <c r="G25" s="89" t="s">
@@ -1707,19 +1843,19 @@
       <c r="H25" s="90"/>
     </row>
     <row r="26" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="29">
         <v>50</v>
       </c>
       <c r="G26" s="91" t="s">
@@ -1728,17 +1864,17 @@
       <c r="H26" s="92"/>
     </row>
     <row r="27" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="45"/>
-      <c r="C27" s="42" t="s">
+      <c r="B27" s="81"/>
+      <c r="C27" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="29">
         <v>50</v>
       </c>
       <c r="G27" s="91" t="s">
@@ -1747,444 +1883,477 @@
       <c r="H27" s="92"/>
     </row>
     <row r="28" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="32">
         <v>11</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="51"/>
-      <c r="C29" s="47" t="s">
+      <c r="B29" s="78"/>
+      <c r="C29" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="49">
-        <v>50</v>
-      </c>
-      <c r="G29" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="74"/>
+      <c r="F29" s="32">
+        <v>50</v>
+      </c>
+      <c r="G29" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="66"/>
     </row>
     <row r="30" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="51"/>
-      <c r="C30" s="47" t="s">
+      <c r="B30" s="78"/>
+      <c r="C30" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="32">
         <v>8</v>
       </c>
-      <c r="G30" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" s="74"/>
+      <c r="G30" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="66"/>
     </row>
     <row r="31" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="51"/>
-      <c r="C31" s="47" t="s">
+      <c r="B31" s="78"/>
+      <c r="C31" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="32">
         <v>1</v>
       </c>
-      <c r="G31" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" s="50" t="s">
+      <c r="G31" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="51"/>
-      <c r="C32" s="47" t="s">
+      <c r="B32" s="78"/>
+      <c r="C32" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="32">
         <v>100</v>
       </c>
-      <c r="G32" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="74"/>
+      <c r="G32" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="66"/>
     </row>
     <row r="33" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="51"/>
-      <c r="C33" s="47" t="s">
+      <c r="B33" s="78"/>
+      <c r="C33" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="49">
-        <v>50</v>
-      </c>
-      <c r="G33" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="74"/>
+      <c r="F33" s="32">
+        <v>50</v>
+      </c>
+      <c r="G33" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="66"/>
     </row>
     <row r="34" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="51"/>
-      <c r="C34" s="47" t="s">
+      <c r="B34" s="78"/>
+      <c r="C34" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="E34" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="49">
-        <v>50</v>
-      </c>
-      <c r="G34" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="74"/>
+      <c r="F34" s="32">
+        <v>50</v>
+      </c>
+      <c r="G34" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="66"/>
     </row>
     <row r="35" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="51"/>
-      <c r="C35" s="47" t="s">
+      <c r="B35" s="78"/>
+      <c r="C35" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E35" s="48" t="s">
+      <c r="E35" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="49">
-        <v>50</v>
-      </c>
-      <c r="G35" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="74"/>
+      <c r="F35" s="32">
+        <v>50</v>
+      </c>
+      <c r="G35" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="66"/>
     </row>
     <row r="36" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="52"/>
-      <c r="C36" s="47" t="s">
+      <c r="B36" s="79"/>
+      <c r="C36" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="49">
-        <v>50</v>
-      </c>
-      <c r="G36" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" s="74"/>
+      <c r="F36" s="32">
+        <v>50</v>
+      </c>
+      <c r="G36" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="66"/>
     </row>
     <row r="37" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="54" t="s">
+      <c r="D37" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="56">
-        <v>50</v>
-      </c>
-      <c r="G37" s="75" t="s">
+      <c r="F37" s="36">
+        <v>50</v>
+      </c>
+      <c r="G37" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="76"/>
+      <c r="H37" s="46"/>
     </row>
     <row r="38" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="57"/>
-      <c r="C38" s="54" t="s">
+      <c r="B38" s="68"/>
+      <c r="C38" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="55" t="s">
+      <c r="E38" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="56">
-        <v>50</v>
-      </c>
-      <c r="G38" s="75" t="s">
+      <c r="F38" s="36">
+        <v>50</v>
+      </c>
+      <c r="G38" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="76"/>
+      <c r="H38" s="46"/>
     </row>
     <row r="39" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="58"/>
-      <c r="C39" s="54" t="s">
+      <c r="B39" s="69"/>
+      <c r="C39" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="54" t="s">
+      <c r="D39" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="56">
+      <c r="F39" s="36">
         <v>5</v>
       </c>
-      <c r="G39" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" s="76"/>
+      <c r="G39" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="60" t="s">
+      <c r="D40" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="61" t="s">
+      <c r="E40" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="62">
+      <c r="F40" s="39">
         <v>11</v>
       </c>
-      <c r="G40" s="63" t="s">
+      <c r="G40" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="63" t="s">
+      <c r="H40" s="40" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="59"/>
-      <c r="C41" s="60" t="s">
+      <c r="B41" s="76"/>
+      <c r="C41" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="60" t="s">
+      <c r="D41" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="E41" s="61" t="s">
+      <c r="E41" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="62">
-        <v>50</v>
-      </c>
-      <c r="G41" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="70"/>
+      <c r="F41" s="39">
+        <v>50</v>
+      </c>
+      <c r="G41" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="62"/>
     </row>
     <row r="42" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="59"/>
-      <c r="C42" s="60" t="s">
+      <c r="B42" s="76"/>
+      <c r="C42" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="60" t="s">
+      <c r="D42" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="E42" s="61" t="s">
+      <c r="E42" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="62">
-        <v>50</v>
-      </c>
-      <c r="G42" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" s="70"/>
+      <c r="F42" s="39">
+        <v>50</v>
+      </c>
+      <c r="G42" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="62"/>
     </row>
     <row r="43" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="59"/>
-      <c r="C43" s="60" t="s">
+      <c r="B43" s="76"/>
+      <c r="C43" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="60" t="s">
+      <c r="D43" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="61" t="s">
+      <c r="E43" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="62">
+      <c r="F43" s="39">
         <v>5</v>
       </c>
-      <c r="G43" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" s="70"/>
+      <c r="G43" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="62"/>
     </row>
     <row r="44" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="59"/>
-      <c r="C44" s="60" t="s">
+      <c r="B44" s="76"/>
+      <c r="C44" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="60" t="s">
+      <c r="D44" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="61" t="s">
+      <c r="E44" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="62">
+      <c r="F44" s="39">
         <v>3</v>
       </c>
-      <c r="G44" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" s="70"/>
+      <c r="G44" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="62"/>
     </row>
     <row r="45" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="59"/>
-      <c r="C45" s="60" t="s">
+      <c r="B45" s="76"/>
+      <c r="C45" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="E45" s="61" t="s">
+      <c r="E45" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="62">
-        <v>50</v>
-      </c>
-      <c r="G45" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45" s="70"/>
+      <c r="F45" s="39">
+        <v>50</v>
+      </c>
+      <c r="G45" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="62"/>
     </row>
     <row r="46" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="59"/>
-      <c r="C46" s="60" t="s">
+      <c r="B46" s="76"/>
+      <c r="C46" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="60" t="s">
+      <c r="D46" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="61" t="s">
+      <c r="E46" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="F46" s="62">
+      <c r="F46" s="39">
         <v>8</v>
       </c>
-      <c r="G46" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" s="70"/>
+      <c r="G46" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="62"/>
     </row>
     <row r="47" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="65" t="s">
+      <c r="C47" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="65" t="s">
+      <c r="D47" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="E47" s="66" t="s">
+      <c r="E47" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="67">
+      <c r="F47" s="43">
         <v>11</v>
       </c>
-      <c r="G47" s="68" t="s">
+      <c r="G47" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H47" s="68" t="s">
+      <c r="H47" s="44" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="64"/>
-      <c r="C48" s="65" t="s">
+      <c r="B48" s="57"/>
+      <c r="C48" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="65" t="s">
+      <c r="D48" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="66" t="s">
+      <c r="E48" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="67">
-        <v>50</v>
-      </c>
-      <c r="G48" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" s="72"/>
+      <c r="F48" s="43">
+        <v>50</v>
+      </c>
+      <c r="G48" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" s="64"/>
     </row>
     <row r="49" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="64"/>
-      <c r="C49" s="65" t="s">
+      <c r="B49" s="57"/>
+      <c r="C49" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="65" t="s">
+      <c r="D49" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="66" t="s">
+      <c r="E49" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="67">
-        <v>50</v>
-      </c>
-      <c r="G49" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="72"/>
+      <c r="F49" s="43">
+        <v>50</v>
+      </c>
+      <c r="G49" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:B39"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="G39:H39"/>
@@ -2201,41 +2370,419 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33305B29-36CF-409A-B8B7-E2A406BE35AC}">
+  <dimension ref="B2:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>